--- a/SZFO/App_Data/Books.xlsx
+++ b/SZFO/App_Data/Books.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Code</t>
   </si>
@@ -36,6 +36,18 @@
   </si>
   <si>
     <t>пкку</t>
+  </si>
+  <si>
+    <t>Не указано</t>
+  </si>
+  <si>
+    <t>галоша</t>
+  </si>
+  <si>
+    <t>калоши</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -82,7 +94,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -116,6 +128,76 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>

--- a/SZFO/App_Data/Books.xlsx
+++ b/SZFO/App_Data/Books.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Code</t>
   </si>
@@ -26,28 +26,22 @@
     <t>FullDescription</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>Не указано</t>
+  </si>
+  <si>
     <t>2114990000</t>
   </si>
   <si>
-    <t>БАЛЛОН ЦАНГОВЫЙ С ГАЗОМ</t>
+    <t>БАЛЛОН</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>пкку</t>
-  </si>
-  <si>
-    <t>Не указано</t>
-  </si>
-  <si>
-    <t>галоша</t>
-  </si>
-  <si>
-    <t>калоши</t>
-  </si>
-  <si>
-    <t>S</t>
+    <t>ngfnfg</t>
   </si>
 </sst>
 </file>
@@ -94,7 +88,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -119,13 +113,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -133,13 +127,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -147,13 +141,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -161,13 +155,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -175,13 +169,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -189,13 +183,69 @@
         <v>4</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/SZFO/App_Data/Books.xlsx
+++ b/SZFO/App_Data/Books.xlsx
@@ -88,7 +88,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -248,6 +248,39 @@
         <v>9</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>

--- a/SZFO/App_Data/Books.xlsx
+++ b/SZFO/App_Data/Books.xlsx
@@ -88,7 +88,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -277,7 +277,21 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>4</v>
+      </c>
       <c r="C14" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" s="0" t="s">
         <v>5</v>
       </c>
     </row>

--- a/SZFO/App_Data/Books.xlsx
+++ b/SZFO/App_Data/Books.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Code</t>
   </si>
@@ -26,22 +26,28 @@
     <t>FullDescription</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Не указано</t>
-  </si>
-  <si>
     <t>2114990000</t>
   </si>
   <si>
-    <t>БАЛЛОН</t>
+    <t>БАЛЛОН ЦАНГОВЫЙ С ГАЗОМ</t>
   </si>
   <si>
-    <t>C</t>
+    <t>╩рЄхуюЁш  яЁюфєъЄр: ├рчютюх юсюЁєфютрэшх шыш ├рчют√х срыыюэ√.</t>
   </si>
   <si>
     <t>ngfnfg</t>
+  </si>
+  <si>
+    <t>��������, �� � �� ���� ������ � ���� �������. ��� � ���� ������ ��� � ������ ��������?</t>
+  </si>
+  <si>
+    <t>������� �����/ ������ ��� ����.</t>
+  </si>
+  <si>
+    <t>I'm sorry, I can only provide assistance related to inquiries, issues, and requests. If you need help with something else, feel free to ask!</t>
+  </si>
+  <si>
+    <t>Gas cylinder for welding.</t>
   </si>
 </sst>
 </file>
@@ -88,7 +94,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -113,13 +119,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -127,13 +133,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -141,13 +147,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -155,13 +161,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -169,130 +175,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="C15" s="0" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/SZFO/App_Data/Books.xlsx
+++ b/SZFO/App_Data/Books.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Code</t>
   </si>
@@ -26,28 +26,85 @@
     <t>FullDescription</t>
   </si>
   <si>
-    <t>2114990000</t>
-  </si>
-  <si>
-    <t>БАЛЛОН ЦАНГОВЫЙ С ГАЗОМ</t>
-  </si>
-  <si>
-    <t>╩рЄхуюЁш  яЁюфєъЄр: ├рчютюх юсюЁєфютрэшх шыш ├рчют√х срыыюэ√.</t>
-  </si>
-  <si>
-    <t>ngfnfg</t>
-  </si>
-  <si>
-    <t>��������, �� � �� ���� ������ � ���� �������. ��� � ���� ������ ��� � ������ ��������?</t>
-  </si>
-  <si>
-    <t>������� �����/ ������ ��� ����.</t>
-  </si>
-  <si>
-    <t>I'm sorry, I can only provide assistance related to inquiries, issues, and requests. If you need help with something else, feel free to ask!</t>
-  </si>
-  <si>
-    <t>Gas cylinder for welding.</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>макс</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>лучший</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>поезд</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>быстрый</t>
+  </si>
+  <si>
+    <t>3453</t>
+  </si>
+  <si>
+    <t>я</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>4325</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>train</t>
+  </si>
+  <si>
+    <t>Transportation.</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>The category for the product "car" is automotive vehicles designed for transportation on roads.</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>777</t>
+  </si>
+  <si>
+    <t>хентай</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>топ</t>
+  </si>
+  <si>
+    <t>778</t>
+  </si>
+  <si>
+    <t>зентай2</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>еще лучше</t>
   </si>
 </sst>
 </file>
@@ -94,7 +151,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -130,58 +187,86 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>7</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/SZFO/App_Data/Books.xlsx
+++ b/SZFO/App_Data/Books.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Code</t>
   </si>
@@ -105,6 +105,42 @@
   </si>
   <si>
     <t>еще лучше</t>
+  </si>
+  <si>
+    <t>ыва</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>ываыа</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>к</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>ы</t>
+  </si>
+  <si>
+    <t>rrd</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
 </sst>
 </file>
@@ -151,7 +187,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -269,6 +305,62 @@
         <v>30</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>

--- a/SZFO/App_Data/Books.xlsx
+++ b/SZFO/App_Data/Books.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Code</t>
   </si>
@@ -141,6 +141,39 @@
   </si>
   <si>
     <t>e</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ошибка пустого ввода</t>
+  </si>
+  <si>
+    <t>2114990000</t>
+  </si>
+  <si>
+    <t>БАЛЛОН ЦАНГОВЫЙ С ГАЗОМ</t>
+  </si>
+  <si>
+    <t>ngfnfg</t>
+  </si>
+  <si>
+    <t>The category for the product is "Gas Cylinder with Valve".</t>
+  </si>
+  <si>
+    <t>I'm sorry, I can't provide a definition for the product category "┴└╦╦╬═ ╓└═├╬┬█╔ ╤ ├└╟╬╠" as it is not covered in the training data. If you have any other questions or need assistance with topics within the scope of my training data, feel free to ask!</t>
+  </si>
+  <si>
+    <t>БАЛЛОН ЦАНГОВЫЙ С метаном</t>
+  </si>
+  <si>
+    <t>I'm here to assist you with your inquiries and provide information based on the training data. Feel free to ask me anything related to my role!</t>
+  </si>
+  <si>
+    <t>I apologize, but it seems like you forgot to provide the product or category information for me to define. Could you please provide that information so I can assist you better?</t>
+  </si>
+  <si>
+    <t>I'm sorry, but I need more information about the product in order to define its category. Could you please provide me with the name or description of the product?</t>
   </si>
 </sst>
 </file>
@@ -187,7 +220,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -361,6 +394,123 @@
         <v>42</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>
